--- a/biology/Virologie/Echovirus/Echovirus.xlsx
+++ b/biology/Virologie/Echovirus/Echovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les  Echovirus (pour Enteric Cytopathogenic Human Orphan virus) ont des structures antigéniques qui permettent de distinguer 32 sérotypes d'echovirus (1 à 9, 11 à 27, 29 à 34).
 Le virus Echo 16 est responsable d'une maladie cutanée, l'exanthème de Boston, dont l'évolution se rapproche de celle de l'exanthème subit : après une incubation de 3 à 7 jours, la fièvre apparaît pendant 24 à 48 heures suivie d'une éruption maculo-papuleuse avec des lésions de 1 à 2 mm de diamètre, de couleur rose saumon, qui débutent au visage puis à la partie supérieure du thorax avant de se généraliser. L'éruption, non prurigineuse, dure de 1 à 5 jours et s'efface sans laisser de trace.
@@ -513,7 +525,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Echovirus 11 est le sujet d'un épisode de la série médicale "Dr House".
 Dans le premier épisode de la série Netflix Chambers, Sasha explique que son arrêt cardiaque a été causé par un echovirus qui n’avait pas été détecté .
